--- a/descarga.xlsx
+++ b/descarga.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
   <si>
     <t>DIAGNÓSTICO COMUNIDAD</t>
   </si>
@@ -155,18 +155,36 @@
     <t xml:space="preserve">Maicol Antonio maraboli Acevedo </t>
   </si>
   <si>
+    <t xml:space="preserve">Pablo Andrés hormazabal hormazabal </t>
+  </si>
+  <si>
+    <t>Alfredo enrique saldia sanhueza</t>
+  </si>
+  <si>
     <t xml:space="preserve">Millaray Crespo </t>
   </si>
   <si>
+    <t xml:space="preserve">Melanie del rosario madrid maureira </t>
+  </si>
+  <si>
+    <t>Amigo de la familia</t>
+  </si>
+  <si>
     <t>sebastian  leal rodriguez</t>
   </si>
   <si>
     <t>De las 13:00 pm a 20:00 pm</t>
   </si>
   <si>
+    <t>Carlos Núñez Guajardo</t>
+  </si>
+  <si>
     <t>Luis Alejandro Muñoz hernandez</t>
   </si>
   <si>
+    <t xml:space="preserve">Luis alejandro medina valdes </t>
+  </si>
+  <si>
     <t>MARTINA PAZ ROJAS POBLETE</t>
   </si>
   <si>
@@ -176,6 +194,12 @@
     <t xml:space="preserve">Dannia belen Salamanca Ibañez </t>
   </si>
   <si>
+    <t xml:space="preserve">Fabián Antonio Habert Oyarzo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matias joaquin Diaz perez </t>
+  </si>
+  <si>
     <t xml:space="preserve">Maikol José Guzmán Ramírez </t>
   </si>
   <si>
@@ -185,13 +209,16 @@
     <t xml:space="preserve">Aranza Antonia Rojas Hernández </t>
   </si>
   <si>
+    <t>Abraham Antonio Avilés oyarce</t>
+  </si>
+  <si>
     <t>Lorena Andrea Peñaloza Verdugo</t>
   </si>
   <si>
     <t>Absalón Esteban Seguel Núñez</t>
   </si>
   <si>
-    <t>Amigo de la familia</t>
+    <t>Claudio Nicolás maraboli acevedo</t>
   </si>
   <si>
     <t>Pedro Alejandro Montoya Merino</t>
@@ -215,6 +242,9 @@
     <t xml:space="preserve">Anahis fabiana cifuentes Contreras </t>
   </si>
   <si>
+    <t xml:space="preserve">Cristopher  Alejandro Muñoz Rodríguez </t>
+  </si>
+  <si>
     <t xml:space="preserve">Isidora margarita pardo mancilla </t>
   </si>
   <si>
@@ -230,6 +260,9 @@
     <t xml:space="preserve">Francisca Polet Manzano Acevedo </t>
   </si>
   <si>
+    <t>Claudio Maximiliano Ramirez González</t>
+  </si>
+  <si>
     <t>Cristóbal Antonio días Hernández</t>
   </si>
   <si>
@@ -239,18 +272,30 @@
     <t>Benjamín Alonso Astete Tapia</t>
   </si>
   <si>
+    <t xml:space="preserve">Alison antonia bravo Saavedra </t>
+  </si>
+  <si>
     <t>Sergio Esteban Poblete poblete</t>
   </si>
   <si>
     <t>Benjamin Marcelo Peñaloza Muñoz</t>
   </si>
   <si>
+    <t>Benito humberto arellano diaz</t>
+  </si>
+  <si>
+    <t>Cristhopher Javier Lorca lagos</t>
+  </si>
+  <si>
     <t>Millaray Scarlett Parra Neira</t>
   </si>
   <si>
     <t>Mario Alberto Zuñiga Mauffray</t>
   </si>
   <si>
+    <t>Matias alfonso reyes erices</t>
+  </si>
+  <si>
     <t>Danycherts Antonella Vergara Pérez</t>
   </si>
   <si>
@@ -260,12 +305,18 @@
     <t xml:space="preserve">Maritza Alexandra Díaz Barrios </t>
   </si>
   <si>
+    <t>Axel Esteban Salinas Cisterna</t>
+  </si>
+  <si>
     <t>Katherine del carmen ibañez miño</t>
   </si>
   <si>
     <t>jennifer paola ramirez retamal</t>
   </si>
   <si>
+    <t>geanina paz godoy vidal</t>
+  </si>
+  <si>
     <t>Sebastian rojas gajardo</t>
   </si>
   <si>
@@ -287,6 +338,9 @@
     <t>Cristal Yuzara Alarcon Lopez</t>
   </si>
   <si>
+    <t>Guiv3ns humberto sassi farias</t>
+  </si>
+  <si>
     <t>Luis Alberto Salazar bastias</t>
   </si>
   <si>
@@ -305,67 +359,10 @@
     <t xml:space="preserve">Carla Rojas </t>
   </si>
   <si>
+    <t xml:space="preserve">María José Maturana cáceres </t>
+  </si>
+  <si>
     <t xml:space="preserve">Isbac Emanuel Huenchuñir Ruiz </t>
-  </si>
-  <si>
-    <t>Luis Antonio Contreras Diaz</t>
-  </si>
-  <si>
-    <t>Cristóbal Ignacio Gutiérrez Cruz</t>
-  </si>
-  <si>
-    <t>Benjamin Alejandro Pereira Alarcon</t>
-  </si>
-  <si>
-    <t>Kassandra Andrea Muñoz Palavecinos</t>
-  </si>
-  <si>
-    <t>Compañero de cursos</t>
-  </si>
-  <si>
-    <t>Amaro Gaspar Hidalgo Avalos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Darline Jael Montecinos Rebolledo </t>
-  </si>
-  <si>
-    <t>Katherine Beatriz Eliana Aguirre Vilches</t>
-  </si>
-  <si>
-    <t>CRISTÓBAL ADOLFO VERDUGO ORELLANA</t>
-  </si>
-  <si>
-    <t>Cristian andres ponce valenzuela</t>
-  </si>
-  <si>
-    <t>Bedran arath herrera santander</t>
-  </si>
-  <si>
-    <t>Javiera Ignacia Maldonado garrido</t>
-  </si>
-  <si>
-    <t>DAILIN ANAIS FERRADA MIRANDA</t>
-  </si>
-  <si>
-    <t>Dante Alexis Fuentes Vasquez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Leandro González Zamorano </t>
-  </si>
-  <si>
-    <t>Elisea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samir Moisés reyes MUÑOZ </t>
-  </si>
-  <si>
-    <t>Sebastian Ignacio salamanca ibañez</t>
-  </si>
-  <si>
-    <t>Karla Constanza Salamanca Henríquez</t>
-  </si>
-  <si>
-    <t>Katherine Andrea González farias</t>
   </si>
 </sst>
 </file>
@@ -1972,11 +1969,9 @@
         <v>4</v>
       </c>
       <c r="D14" s="4">
-        <v>2</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1991,15 +1986,15 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="R14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T14" s="1"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
@@ -2043,23 +2038,23 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="R15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S15" s="3"/>
-      <c r="T15" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="S15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
+      <c r="X15" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="Z15" s="1"/>
       <c r="AA15" s="4"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="1"/>
@@ -2072,38 +2067,40 @@
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="L16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S16" s="3"/>
-      <c r="T16" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="S16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
@@ -2124,37 +2121,35 @@
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D17" s="4">
-        <v>6</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E17" s="3"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>37</v>
@@ -2162,10 +2157,10 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="W17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="4"/>
@@ -2183,21 +2178,17 @@
         <v>51</v>
       </c>
       <c r="C18" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" s="4">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E18" s="3"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
         <v>37</v>
@@ -2207,24 +2198,24 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="R18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T18" s="1"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="Z18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA18" s="4"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
@@ -2236,48 +2227,48 @@
         <v>10</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="3">
         <v>4</v>
       </c>
       <c r="D19" s="4">
-        <v>3</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="L19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="R19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T19" s="1"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
+      <c r="X19" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="Y19" s="1"/>
-      <c r="Z19" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="Z19" s="1"/>
       <c r="AA19" s="4"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="1"/>
@@ -2290,24 +2281,20 @@
         <v>11</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1" t="s">
@@ -2317,7 +2304,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R20" s="4" t="s">
         <v>39</v>
@@ -2328,12 +2315,12 @@
       </c>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
+      <c r="Z20" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="AA20" s="4"/>
       <c r="AB20" s="3"/>
       <c r="AC20" s="1"/>
@@ -2346,39 +2333,41 @@
         <v>12</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="K21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="R21" s="4" t="s">
         <v>39</v>
       </c>
       <c r="S21" s="3"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="T21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
@@ -2398,13 +2387,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="3">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D22" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>37</v>
@@ -2413,25 +2402,27 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L22" s="1"/>
+      <c r="J22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="S22" s="3"/>
-      <c r="T22" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
@@ -2452,20 +2443,24 @@
         <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" s="4">
-        <v>2</v>
-      </c>
-      <c r="E23" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="J23" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1" t="s">
         <v>37</v>
@@ -2475,24 +2470,24 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="R23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S23" s="3"/>
+      <c r="S23" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="T23" s="1"/>
-      <c r="U23" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
-      <c r="X23" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
-      <c r="AA23" s="4"/>
+      <c r="AA23" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="AB23" s="3"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
@@ -2504,18 +2499,18 @@
         <v>15</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" s="4">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2529,10 +2524,10 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>37</v>
@@ -2543,10 +2538,10 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="Z24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA24" s="4"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
@@ -2561,45 +2556,43 @@
         <v>59</v>
       </c>
       <c r="C25" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D25" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="L25" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R25" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S25" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="S25" s="7"/>
       <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
+      <c r="U25" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
+      <c r="X25" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="Y25" s="5"/>
-      <c r="Z25" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="Z25" s="5"/>
       <c r="AA25" s="8"/>
       <c r="AB25" s="7"/>
       <c r="AC25" s="5"/>
@@ -2615,43 +2608,45 @@
         <v>60</v>
       </c>
       <c r="C26" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="L26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="R26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="S26" s="3"/>
       <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
+      <c r="U26" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
+      <c r="X26" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="Y26" s="1"/>
-      <c r="Z26" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="Z26" s="1"/>
       <c r="AA26" s="4"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="1"/>
@@ -2667,10 +2662,10 @@
         <v>61</v>
       </c>
       <c r="C27" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D27" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="1"/>
@@ -2679,7 +2674,9 @@
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="J27" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1" t="s">
@@ -2694,19 +2691,19 @@
       <c r="R27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T27" s="1"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
+      <c r="W27" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
-      <c r="AA27" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="AA27" s="4"/>
       <c r="AB27" s="3"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
@@ -2727,9 +2724,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2743,23 +2738,23 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="R28" s="4" t="s">
         <v>39</v>
       </c>
       <c r="S28" s="3"/>
-      <c r="T28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="Y28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z28" s="1"/>
       <c r="AA28" s="4"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="1"/>
@@ -2780,7 +2775,9 @@
       <c r="D29" s="4">
         <v>2</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2801,17 +2798,17 @@
         <v>42</v>
       </c>
       <c r="S29" s="3"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="T29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
+      <c r="X29" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="Y29" s="1"/>
-      <c r="Z29" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="Z29" s="1"/>
       <c r="AA29" s="4"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="1"/>
@@ -2827,45 +2824,45 @@
         <v>64</v>
       </c>
       <c r="C30" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="E30" s="3"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="S30" s="3"/>
-      <c r="T30" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
-      <c r="Y30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="AA30" s="4"/>
       <c r="AB30" s="3"/>
       <c r="AC30" s="1"/>
@@ -2881,10 +2878,10 @@
         <v>65</v>
       </c>
       <c r="C31" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="1"/>
@@ -2901,23 +2898,23 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="R31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S31" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="S31" s="3"/>
       <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
+      <c r="U31" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
+      <c r="X31" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="Y31" s="1"/>
-      <c r="Z31" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="Z31" s="1"/>
       <c r="AA31" s="4"/>
       <c r="AB31" s="3"/>
       <c r="AC31" s="1"/>
@@ -2933,15 +2930,15 @@
         <v>66</v>
       </c>
       <c r="C32" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" s="4">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2958,21 +2955,21 @@
         <v>38</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="S32" s="3"/>
-      <c r="T32" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
-      <c r="Z32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA32" s="4"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="AB32" s="3"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
@@ -2990,21 +2987,19 @@
         <v>5</v>
       </c>
       <c r="D33" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="L33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -3020,11 +3015,11 @@
       </c>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
-      <c r="W33" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="W33" s="1"/>
       <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
+      <c r="Y33" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="Z33" s="1"/>
       <c r="AA33" s="4"/>
       <c r="AB33" s="3"/>
@@ -3041,32 +3036,32 @@
         <v>68</v>
       </c>
       <c r="C34" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D34" s="4">
-        <v>2</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E34" s="3"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="S34" s="3" t="s">
         <v>37</v>
@@ -3095,29 +3090,27 @@
         <v>69</v>
       </c>
       <c r="C35" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="R35" s="4" t="s">
         <v>39</v>
@@ -3149,16 +3142,16 @@
         <v>70</v>
       </c>
       <c r="C36" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D36" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E36" s="3"/>
-      <c r="F36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -3176,19 +3169,19 @@
       <c r="R36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S36" s="3"/>
-      <c r="T36" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="S36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
-      <c r="Z36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA36" s="4"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="AB36" s="3"/>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
@@ -3206,10 +3199,12 @@
         <v>3</v>
       </c>
       <c r="D37" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="3"/>
-      <c r="F37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -3223,23 +3218,23 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="R37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S37" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T37" s="1"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
-      <c r="X37" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
+      <c r="Z37" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="AA37" s="4"/>
       <c r="AB37" s="3"/>
       <c r="AC37" s="1"/>
@@ -3255,45 +3250,43 @@
         <v>72</v>
       </c>
       <c r="C38" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" s="4">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="K38" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="L38" s="1"/>
-      <c r="M38" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="S38" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="S38" s="3"/>
       <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
+      <c r="U38" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="V38" s="1"/>
-      <c r="W38" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
+      <c r="Z38" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="AA38" s="4"/>
       <c r="AB38" s="3"/>
       <c r="AC38" s="1"/>
@@ -3309,16 +3302,16 @@
         <v>73</v>
       </c>
       <c r="C39" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
       </c>
-      <c r="E39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="F39" s="1"/>
-      <c r="G39" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -3331,22 +3324,22 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="S39" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T39" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="S39" s="3"/>
+      <c r="T39" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
-      <c r="W39" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="W39" s="1"/>
       <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
+      <c r="Y39" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="Z39" s="1"/>
       <c r="AA39" s="4"/>
       <c r="AB39" s="3"/>
@@ -3363,37 +3356,35 @@
         <v>74</v>
       </c>
       <c r="C40" s="7">
+        <v>5</v>
+      </c>
+      <c r="D40" s="8">
         <v>3</v>
-      </c>
-      <c r="D40" s="8">
-        <v>2</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="L40" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R40" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="S40" s="7"/>
-      <c r="T40" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="S40" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T40" s="5"/>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
@@ -3417,43 +3408,41 @@
         <v>75</v>
       </c>
       <c r="C41" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="L41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="R41" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="S41" s="3"/>
       <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
+      <c r="U41" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="V41" s="1"/>
-      <c r="W41" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
       <c r="AA41" s="4"/>
@@ -3471,24 +3460,24 @@
         <v>76</v>
       </c>
       <c r="C42" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D42" s="4">
         <v>3</v>
       </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="F42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -3498,18 +3487,18 @@
       <c r="R42" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T42" s="1"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
-      <c r="W42" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="W42" s="1"/>
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
+      <c r="Z42" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="AA42" s="4"/>
       <c r="AB42" s="3"/>
       <c r="AC42" s="1"/>
@@ -3525,16 +3514,16 @@
         <v>77</v>
       </c>
       <c r="C43" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -3547,23 +3536,23 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R43" s="4" t="s">
         <v>39</v>
       </c>
       <c r="S43" s="3"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="T43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U43" s="1"/>
       <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
+      <c r="W43" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
-      <c r="Z43" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="Z43" s="1"/>
       <c r="AA43" s="4"/>
       <c r="AB43" s="3"/>
       <c r="AC43" s="1"/>
@@ -3579,27 +3568,29 @@
         <v>78</v>
       </c>
       <c r="C44" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" s="4">
         <v>2</v>
       </c>
-      <c r="E44" s="3"/>
+      <c r="E44" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="L44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="R44" s="4" t="s">
         <v>39</v>
@@ -3610,12 +3601,12 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
-      <c r="W44" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="W44" s="1"/>
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
+      <c r="Z44" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="AA44" s="4"/>
       <c r="AB44" s="3"/>
       <c r="AC44" s="1"/>
@@ -3631,26 +3622,24 @@
         <v>79</v>
       </c>
       <c r="C45" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" s="4">
         <v>2</v>
       </c>
       <c r="E45" s="3"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="F45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="L45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -3666,12 +3655,12 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
-      <c r="W45" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
+      <c r="Z45" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="AA45" s="4"/>
       <c r="AB45" s="3"/>
       <c r="AC45" s="1"/>
@@ -3687,7 +3676,7 @@
         <v>80</v>
       </c>
       <c r="C46" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -3714,10 +3703,10 @@
       <c r="R46" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T46" s="1"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
@@ -3741,21 +3730,19 @@
         <v>81</v>
       </c>
       <c r="C47" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
       </c>
       <c r="E47" s="3"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="F47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1" t="s">
@@ -3765,16 +3752,16 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R47" s="4" t="s">
         <v>39</v>
       </c>
       <c r="S47" s="3"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="T47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U47" s="1"/>
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
@@ -3797,23 +3784,21 @@
         <v>82</v>
       </c>
       <c r="C48" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" s="4">
         <v>2</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -3822,7 +3807,7 @@
         <v>38</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>37</v>
@@ -3831,12 +3816,12 @@
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
-      <c r="X48" s="1"/>
+      <c r="X48" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
-      <c r="AA48" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="AA48" s="4"/>
       <c r="AB48" s="3"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
@@ -3851,37 +3836,37 @@
         <v>83</v>
       </c>
       <c r="C49" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" s="4">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="G49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-      <c r="L49" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="R49" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="S49" s="3"/>
-      <c r="T49" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
       <c r="W49" s="1" t="s">
@@ -3905,22 +3890,24 @@
         <v>84</v>
       </c>
       <c r="C50" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="L50" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
@@ -3930,13 +3917,15 @@
       <c r="R50" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S50" s="3"/>
+      <c r="S50" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="T50" s="1"/>
-      <c r="U50" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="U50" s="1"/>
       <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
+      <c r="W50" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
@@ -3955,16 +3944,16 @@
         <v>85</v>
       </c>
       <c r="C51" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" s="4">
-        <v>1</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E51" s="3"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -3980,20 +3969,20 @@
         <v>38</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="S51" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T51" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="S51" s="3"/>
+      <c r="T51" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
-      <c r="X51" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
-      <c r="Z51" s="1"/>
+      <c r="Z51" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="AA51" s="4"/>
       <c r="AB51" s="3"/>
       <c r="AC51" s="1"/>
@@ -4012,7 +4001,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="1"/>
@@ -4031,23 +4020,23 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="R52" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T52" s="1"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
-      <c r="W52" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="W52" s="1"/>
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
-      <c r="Z52" s="1"/>
+      <c r="Z52" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="AA52" s="4"/>
       <c r="AB52" s="3"/>
       <c r="AC52" s="1"/>
@@ -4066,26 +4055,26 @@
         <v>4</v>
       </c>
       <c r="D53" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E53" s="3"/>
-      <c r="F53" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-      <c r="L53" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R53" s="4" t="s">
         <v>39</v>
@@ -4096,10 +4085,10 @@
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
-      <c r="X53" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="W53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
       <c r="AA53" s="4"/>
@@ -4117,16 +4106,16 @@
         <v>88</v>
       </c>
       <c r="C54" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" s="4">
-        <v>2</v>
-      </c>
-      <c r="E54" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="F54" s="1"/>
-      <c r="G54" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -4171,15 +4160,13 @@
         <v>89</v>
       </c>
       <c r="C55" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" s="8">
         <v>1</v>
       </c>
       <c r="E55" s="7"/>
-      <c r="F55" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
@@ -4196,20 +4183,20 @@
         <v>38</v>
       </c>
       <c r="R55" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="S55" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="T55" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="S55" s="7"/>
+      <c r="T55" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="U55" s="5"/>
       <c r="V55" s="5"/>
       <c r="W55" s="5"/>
-      <c r="X55" s="5"/>
+      <c r="X55" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="Y55" s="5"/>
-      <c r="Z55" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="Z55" s="5"/>
       <c r="AA55" s="8"/>
       <c r="AB55" s="7"/>
       <c r="AC55" s="5"/>
@@ -4225,10 +4212,10 @@
         <v>90</v>
       </c>
       <c r="C56" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D56" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="1"/>
@@ -4237,19 +4224,17 @@
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="J56" s="1"/>
       <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="L56" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R56" s="4" t="s">
         <v>39</v>
@@ -4260,12 +4245,12 @@
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
+      <c r="W56" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
-      <c r="Z56" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="Z56" s="1"/>
       <c r="AA56" s="4"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="1"/>
@@ -4287,16 +4272,18 @@
         <v>2</v>
       </c>
       <c r="E57" s="3"/>
-      <c r="F57" s="1"/>
+      <c r="F57" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
-      <c r="L57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
@@ -4306,18 +4293,18 @@
       <c r="R57" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="S57" s="3"/>
       <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
+      <c r="U57" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="V57" s="1"/>
-      <c r="W57" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="W57" s="1"/>
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
-      <c r="Z57" s="1"/>
+      <c r="Z57" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="AA57" s="4"/>
       <c r="AB57" s="3"/>
       <c r="AC57" s="1"/>
@@ -4344,7 +4331,9 @@
         <v>37</v>
       </c>
       <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+      <c r="I58" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -4366,12 +4355,12 @@
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
-      <c r="W58" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="W58" s="1"/>
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
-      <c r="Z58" s="1"/>
+      <c r="Z58" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="AA58" s="4"/>
       <c r="AB58" s="3"/>
       <c r="AC58" s="1"/>
@@ -4387,19 +4376,15 @@
         <v>93</v>
       </c>
       <c r="C59" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59" s="3"/>
-      <c r="F59" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -4422,12 +4407,12 @@
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
-      <c r="W59" s="1"/>
+      <c r="W59" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
-      <c r="Z59" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="Z59" s="1"/>
       <c r="AA59" s="4"/>
       <c r="AB59" s="3"/>
       <c r="AC59" s="1"/>
@@ -4446,40 +4431,42 @@
         <v>4</v>
       </c>
       <c r="D60" s="4">
-        <v>1</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E60" s="3"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
+      <c r="G60" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
+      <c r="I60" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
-      <c r="L60" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R60" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S60" s="3"/>
-      <c r="T60" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="S60" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T60" s="1"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
-      <c r="X60" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="W60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
       <c r="AA60" s="4"/>
@@ -4500,40 +4487,42 @@
         <v>5</v>
       </c>
       <c r="D61" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E61" s="3"/>
-      <c r="F61" s="1"/>
+      <c r="F61" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
-      <c r="L61" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="R61" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S61" s="3"/>
+      <c r="S61" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="T61" s="1"/>
-      <c r="U61" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="U61" s="1"/>
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
-      <c r="X61" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
-      <c r="Z61" s="1"/>
+      <c r="Z61" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="AA61" s="4"/>
       <c r="AB61" s="3"/>
       <c r="AC61" s="1"/>
@@ -4552,21 +4541,19 @@
         <v>4</v>
       </c>
       <c r="D62" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E62" s="3"/>
-      <c r="F62" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
-      <c r="L62" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
@@ -4576,10 +4563,10 @@
       <c r="R62" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S62" s="3"/>
-      <c r="T62" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="S62" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T62" s="1"/>
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
       <c r="W62" s="1" t="s">
@@ -4609,39 +4596,41 @@
         <v>1</v>
       </c>
       <c r="E63" s="3"/>
-      <c r="F63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="J63" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K63" s="1"/>
       <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
+      <c r="M63" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R63" s="4" t="s">
         <v>39</v>
       </c>
       <c r="S63" s="3"/>
-      <c r="T63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
-      <c r="X63" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
-      <c r="Z63" s="1"/>
+      <c r="Z63" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="AA63" s="4"/>
       <c r="AB63" s="3"/>
       <c r="AC63" s="1"/>
@@ -4657,46 +4646,46 @@
         <v>98</v>
       </c>
       <c r="C64" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D64" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E64" s="3"/>
-      <c r="F64" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="K64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R64" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="S64" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="S64" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="T64" s="1"/>
-      <c r="U64" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="U64" s="1"/>
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
-      <c r="Z64" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA64" s="4"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="AB64" s="3"/>
       <c r="AC64" s="1"/>
       <c r="AD64" s="1"/>
@@ -4711,24 +4700,24 @@
         <v>99</v>
       </c>
       <c r="C65" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D65" s="4">
         <v>2</v>
       </c>
-      <c r="E65" s="3"/>
+      <c r="E65" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="F65" s="1"/>
-      <c r="G65" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="L65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
@@ -4736,7 +4725,7 @@
         <v>41</v>
       </c>
       <c r="R65" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S65" s="3" t="s">
         <v>37</v>
@@ -4746,10 +4735,10 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
-      <c r="Y65" s="1"/>
-      <c r="Z65" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="Y65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z65" s="1"/>
       <c r="AA65" s="4"/>
       <c r="AB65" s="3"/>
       <c r="AC65" s="1"/>
@@ -4765,26 +4754,24 @@
         <v>100</v>
       </c>
       <c r="C66" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="I66" s="1"/>
-      <c r="J66" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="J66" s="1"/>
       <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="L66" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
@@ -4792,21 +4779,21 @@
         <v>38</v>
       </c>
       <c r="R66" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="S66" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T66" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="S66" s="3"/>
+      <c r="T66" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
-      <c r="W66" s="1"/>
+      <c r="W66" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
-      <c r="AA66" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="AA66" s="4"/>
       <c r="AB66" s="3"/>
       <c r="AC66" s="1"/>
       <c r="AD66" s="1"/>
@@ -4818,19 +4805,17 @@
         <v>58</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C67" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -4848,15 +4833,13 @@
       <c r="R67" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S67" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="S67" s="3"/>
       <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
+      <c r="U67" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="V67" s="1"/>
-      <c r="W67" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="W67" s="1"/>
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
@@ -4872,18 +4855,18 @@
         <v>59</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C68" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" s="4">
-        <v>2</v>
-      </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -4900,7 +4883,7 @@
         <v>38</v>
       </c>
       <c r="R68" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S68" s="3" t="s">
         <v>37</v>
@@ -4908,10 +4891,10 @@
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
-      <c r="W68" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
       <c r="AA68" s="4"/>
@@ -4926,13 +4909,13 @@
         <v>60</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C69" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="1"/>
@@ -4951,10 +4934,10 @@
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="R69" s="4" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="S69" s="3" t="s">
         <v>37</v>
@@ -4962,12 +4945,12 @@
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
-      <c r="W69" s="1"/>
+      <c r="W69" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
-      <c r="Z69" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="Z69" s="1"/>
       <c r="AA69" s="4"/>
       <c r="AB69" s="3"/>
       <c r="AC69" s="1"/>
@@ -4980,13 +4963,13 @@
         <v>61</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C70" s="7">
+        <v>4</v>
+      </c>
+      <c r="D70" s="8">
         <v>3</v>
-      </c>
-      <c r="D70" s="8">
-        <v>2</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="5" t="s">
@@ -4997,15 +4980,15 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="L70" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M70" s="5"/>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
       <c r="P70" s="5"/>
       <c r="Q70" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R70" s="8" t="s">
         <v>39</v>
@@ -5016,10 +4999,10 @@
       <c r="T70" s="5"/>
       <c r="U70" s="5"/>
       <c r="V70" s="5"/>
-      <c r="W70" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="X70" s="5"/>
+      <c r="W70" s="5"/>
+      <c r="X70" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
       <c r="AA70" s="8"/>
@@ -5034,34 +5017,32 @@
         <v>62</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C71" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" s="4">
         <v>2</v>
       </c>
       <c r="E71" s="3"/>
-      <c r="F71" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="H71" s="1"/>
-      <c r="I71" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
-      <c r="L71" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R71" s="4" t="s">
         <v>39</v>
@@ -5072,10 +5053,10 @@
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
       <c r="V71" s="1"/>
-      <c r="W71" s="1"/>
-      <c r="X71" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="W71" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
       <c r="AA71" s="4"/>
@@ -5090,10 +5071,10 @@
         <v>63</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C72" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -5118,7 +5099,7 @@
         <v>38</v>
       </c>
       <c r="R72" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>37</v>
@@ -5127,11 +5108,11 @@
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
-      <c r="X72" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
-      <c r="Z72" s="1"/>
+      <c r="Z72" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="AA72" s="4"/>
       <c r="AB72" s="3"/>
       <c r="AC72" s="1"/>
@@ -5144,7 +5125,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C73" s="3">
         <v>4</v>
@@ -5153,34 +5134,30 @@
         <v>2</v>
       </c>
       <c r="E73" s="3"/>
-      <c r="F73" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
-      <c r="I73" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="L73" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="R73" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S73" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="S73" s="3"/>
       <c r="T73" s="1"/>
-      <c r="U73" s="1"/>
+      <c r="U73" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
       <c r="X73" s="1" t="s">
@@ -5200,22 +5177,24 @@
         <v>65</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C74" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" s="4">
         <v>2</v>
       </c>
-      <c r="E74" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="E74" s="3"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
+      <c r="G74" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
+      <c r="J74" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1" t="s">
@@ -5225,7 +5204,7 @@
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R74" s="4" t="s">
         <v>39</v>
@@ -5254,23 +5233,19 @@
         <v>66</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C75" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75" s="3"/>
-      <c r="F75" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1" t="s">
@@ -5281,10 +5256,10 @@
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R75" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S75" s="3" t="s">
         <v>37</v>
@@ -5310,17 +5285,19 @@
         <v>67</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C76" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D76" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
+      <c r="G76" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -5333,18 +5310,20 @@
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="R76" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S76" s="3"/>
+      <c r="S76" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="T76" s="1"/>
-      <c r="U76" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="U76" s="1"/>
       <c r="V76" s="1"/>
-      <c r="W76" s="1"/>
+      <c r="W76" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
@@ -5360,10 +5339,10 @@
         <v>68</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C77" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D77" s="4">
         <v>1</v>
@@ -5373,14 +5352,16 @@
         <v>37</v>
       </c>
       <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
+      <c r="H77" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
-      <c r="L77" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
@@ -5397,11 +5378,11 @@
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
-      <c r="X77" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
-      <c r="Z77" s="1"/>
+      <c r="Z77" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="AA77" s="4"/>
       <c r="AB77" s="3"/>
       <c r="AC77" s="1"/>
@@ -5414,7 +5395,7 @@
         <v>69</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C78" s="3">
         <v>4</v>
@@ -5422,7 +5403,9 @@
       <c r="D78" s="4">
         <v>1</v>
       </c>
-      <c r="E78" s="3"/>
+      <c r="E78" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -5437,23 +5420,23 @@
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R78" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S78" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T78" s="1"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
-      <c r="X78" s="1"/>
+      <c r="X78" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="Y78" s="1"/>
-      <c r="Z78" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="Z78" s="1"/>
       <c r="AA78" s="4"/>
       <c r="AB78" s="3"/>
       <c r="AC78" s="1"/>
@@ -5466,18 +5449,16 @@
         <v>70</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C79" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" s="4">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="E79" s="3"/>
-      <c r="F79" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -5491,23 +5472,23 @@
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="R79" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S79" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="S79" s="3"/>
       <c r="T79" s="1"/>
-      <c r="U79" s="1"/>
+      <c r="U79" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
-      <c r="X79" s="1"/>
+      <c r="X79" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="Y79" s="1"/>
-      <c r="Z79" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="Z79" s="1"/>
       <c r="AA79" s="4"/>
       <c r="AB79" s="3"/>
       <c r="AC79" s="1"/>
@@ -5520,26 +5501,26 @@
         <v>71</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C80" s="3">
         <v>4</v>
       </c>
       <c r="D80" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E80" s="3"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="F80" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
-      <c r="K80" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
@@ -5548,7 +5529,7 @@
         <v>38</v>
       </c>
       <c r="R80" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S80" s="3" t="s">
         <v>37</v>
@@ -5574,16 +5555,18 @@
         <v>72</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C81" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D81" s="4">
         <v>3</v>
       </c>
       <c r="E81" s="3"/>
-      <c r="F81" s="1"/>
+      <c r="F81" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
